--- a/Planning_Project.xlsx
+++ b/Planning_Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusuf\Desktop\School\PHP\Inlever Bestanden\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29A9112-6940-4FC8-A7B9-E3A6409D10B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0B6C59-605A-4B22-8F03-885F047C8975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>Fase</t>
   </si>
@@ -100,6 +100,33 @@
   </si>
   <si>
     <t>dag7</t>
+  </si>
+  <si>
+    <t>150 minuten</t>
+  </si>
+  <si>
+    <t>60 minuten</t>
+  </si>
+  <si>
+    <t>45 minuten</t>
+  </si>
+  <si>
+    <t>120 minuten</t>
+  </si>
+  <si>
+    <t>75 minuten</t>
+  </si>
+  <si>
+    <t>30 minuten</t>
+  </si>
+  <si>
+    <t>15 minuten</t>
+  </si>
+  <si>
+    <t>20 minuten</t>
+  </si>
+  <si>
+    <t>10 minuten</t>
   </si>
 </sst>
 </file>
@@ -420,7 +447,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,6 +503,9 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
@@ -490,6 +520,9 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
@@ -504,6 +537,9 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
       <c r="J4" t="s">
         <v>4</v>
       </c>
@@ -518,6 +554,9 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
       <c r="H5" t="s">
         <v>4</v>
       </c>
@@ -532,6 +571,9 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -546,7 +588,10 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" t="s">
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -557,7 +602,10 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" t="s">
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -568,7 +616,10 @@
       <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="I9" t="s">
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -582,7 +633,10 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="I10" t="s">
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -593,6 +647,9 @@
       <c r="C11" t="s">
         <v>16</v>
       </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
       <c r="G11" t="s">
         <v>4</v>
       </c>
@@ -604,7 +661,10 @@
       <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="J12" t="s">
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
         <v>4</v>
       </c>
     </row>
